--- a/original-sources/historical/vaccinations/vaccinations_2021-01-16.xlsx
+++ b/original-sources/historical/vaccinations/vaccinations_2021-01-16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnicholas000\Desktop\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27746F42-CE3F-4190-96A7-EC58BE24B048}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C6ED7C8-2610-453C-9B0A-BB52F68F8645}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About the Data" sheetId="2" r:id="rId1"/>
@@ -1467,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1477,7 +1477,7 @@
     <col min="2" max="2" width="121.46484375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="48.65" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>271</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>267</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>264</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>261</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="129.65" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="120" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>265</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>266</v>
       </c>
@@ -1573,25 +1573,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K257"/>
+  <dimension ref="A1:K258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.46484375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.19921875" style="6" customWidth="1"/>
     <col min="4" max="5" width="20.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.73046875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.796875" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.46484375" style="6" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.06640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.73046875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.796875" style="6" customWidth="1"/>
     <col min="11" max="11" width="12" style="6" customWidth="1"/>
     <col min="12" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1639,15 +1641,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" si="0"/>
-        <v>1276808</v>
+        <v>1200755</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>1109874</v>
+        <v>1038890</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>166934</v>
+        <v>161865</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1670,7 +1672,7 @@
         <v>9499038</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -1681,13 +1683,13 @@
         <v>4700</v>
       </c>
       <c r="D3" s="16">
-        <v>1285</v>
+        <v>1136</v>
       </c>
       <c r="E3" s="16">
-        <v>1237</v>
+        <v>1094</v>
       </c>
       <c r="F3" s="16">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G3" s="17">
         <v>49346</v>
@@ -1705,7 +1707,7 @@
         <v>24078</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
@@ -1716,10 +1718,10 @@
         <v>1100</v>
       </c>
       <c r="D4" s="16">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E4" s="16">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F4" s="16">
         <v>27</v>
@@ -1740,7 +1742,7 @@
         <v>5867</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
@@ -1751,10 +1753,10 @@
         <v>11200</v>
       </c>
       <c r="D5" s="16">
-        <v>4434</v>
+        <v>4307</v>
       </c>
       <c r="E5" s="16">
-        <v>4416</v>
+        <v>4289</v>
       </c>
       <c r="F5" s="16">
         <v>18</v>
@@ -1775,7 +1777,7 @@
         <v>34525</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
@@ -1786,13 +1788,13 @@
         <v>500</v>
       </c>
       <c r="D6" s="16">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="E6" s="16">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="F6" s="16">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G6" s="17">
         <v>19727</v>
@@ -1810,7 +1812,7 @@
         <v>10102</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
@@ -1821,10 +1823,10 @@
         <v>300</v>
       </c>
       <c r="D7" s="16">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="E7" s="16">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="F7" s="16">
         <v>66</v>
@@ -1845,7 +1847,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>11</v>
       </c>
@@ -1856,10 +1858,10 @@
         <v>200</v>
       </c>
       <c r="D8" s="16">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E8" s="16">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="F8" s="16">
         <v>6</v>
@@ -1880,7 +1882,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
@@ -1891,13 +1893,13 @@
         <v>2700</v>
       </c>
       <c r="D9" s="16">
-        <v>1437</v>
+        <v>1410</v>
       </c>
       <c r="E9" s="16">
-        <v>1307</v>
+        <v>1281</v>
       </c>
       <c r="F9" s="16">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" s="17">
         <v>39065</v>
@@ -1915,7 +1917,7 @@
         <v>17891</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>13</v>
       </c>
@@ -1926,13 +1928,13 @@
         <v>1300</v>
       </c>
       <c r="D10" s="16">
-        <v>1189</v>
+        <v>1165</v>
       </c>
       <c r="E10" s="16">
-        <v>1150</v>
+        <v>1128</v>
       </c>
       <c r="F10" s="16">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" s="17">
         <v>25584</v>
@@ -1950,7 +1952,7 @@
         <v>10132</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>15</v>
       </c>
@@ -1961,10 +1963,10 @@
         <v>500</v>
       </c>
       <c r="D11" s="16">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E11" s="16">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F11" s="16">
         <v>2</v>
@@ -1985,7 +1987,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
@@ -1996,10 +1998,10 @@
         <v>200</v>
       </c>
       <c r="D12" s="16">
-        <v>881</v>
+        <v>807</v>
       </c>
       <c r="E12" s="16">
-        <v>844</v>
+        <v>770</v>
       </c>
       <c r="F12" s="16">
         <v>37</v>
@@ -2020,7 +2022,7 @@
         <v>9348</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>17</v>
       </c>
@@ -2031,13 +2033,13 @@
         <v>1700</v>
       </c>
       <c r="D13" s="16">
-        <v>2027</v>
+        <v>1891</v>
       </c>
       <c r="E13" s="16">
-        <v>1844</v>
+        <v>1713</v>
       </c>
       <c r="F13" s="16">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G13" s="17">
         <v>70499</v>
@@ -2055,7 +2057,7 @@
         <v>34606</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>18</v>
       </c>
@@ -2090,7 +2092,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>19</v>
       </c>
@@ -2101,10 +2103,10 @@
         <v>1500</v>
       </c>
       <c r="D15" s="16">
-        <v>985</v>
+        <v>847</v>
       </c>
       <c r="E15" s="16">
-        <v>913</v>
+        <v>775</v>
       </c>
       <c r="F15" s="16">
         <v>72</v>
@@ -2125,7 +2127,7 @@
         <v>13037</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>20</v>
       </c>
@@ -2136,13 +2138,13 @@
         <v>23200</v>
       </c>
       <c r="D16" s="16">
-        <v>12418</v>
+        <v>11542</v>
       </c>
       <c r="E16" s="16">
-        <v>10553</v>
+        <v>9742</v>
       </c>
       <c r="F16" s="16">
-        <v>1865</v>
+        <v>1800</v>
       </c>
       <c r="G16" s="17">
         <v>265191</v>
@@ -2160,7 +2162,7 @@
         <v>105279</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>21</v>
       </c>
@@ -2171,13 +2173,13 @@
         <v>194575</v>
       </c>
       <c r="D17" s="16">
-        <v>95340</v>
+        <v>90651</v>
       </c>
       <c r="E17" s="16">
-        <v>78598</v>
+        <v>74378</v>
       </c>
       <c r="F17" s="16">
-        <v>16742</v>
+        <v>16273</v>
       </c>
       <c r="G17" s="17">
         <v>1541803</v>
@@ -2195,7 +2197,7 @@
         <v>696450</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>22</v>
       </c>
@@ -2206,13 +2208,13 @@
         <v>300</v>
       </c>
       <c r="D18" s="16">
-        <v>922</v>
+        <v>905</v>
       </c>
       <c r="E18" s="16">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="F18" s="16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" s="17">
         <v>10177</v>
@@ -2230,7 +2232,7 @@
         <v>4572</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>23</v>
       </c>
@@ -2241,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="16">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F19" s="16">
         <v>0</v>
@@ -2265,7 +2267,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>24</v>
       </c>
@@ -2276,13 +2278,13 @@
         <v>1900</v>
       </c>
       <c r="D20" s="16">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="E20" s="16">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="F20" s="16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="17">
         <v>15491</v>
@@ -2300,7 +2302,7 @@
         <v>7171</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>25</v>
       </c>
@@ -2311,13 +2313,13 @@
         <v>7875</v>
       </c>
       <c r="D21" s="16">
-        <v>2780</v>
+        <v>2744</v>
       </c>
       <c r="E21" s="16">
-        <v>2355</v>
+        <v>2325</v>
       </c>
       <c r="F21" s="16">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G21" s="17">
         <v>78179</v>
@@ -2346,13 +2348,13 @@
         <v>11400</v>
       </c>
       <c r="D22" s="16">
-        <v>16355</v>
+        <v>15405</v>
       </c>
       <c r="E22" s="16">
-        <v>13260</v>
+        <v>12398</v>
       </c>
       <c r="F22" s="16">
-        <v>3095</v>
+        <v>3007</v>
       </c>
       <c r="G22" s="17">
         <v>295635</v>
@@ -2381,13 +2383,13 @@
         <v>13950</v>
       </c>
       <c r="D23" s="16">
-        <v>6022</v>
+        <v>5664</v>
       </c>
       <c r="E23" s="16">
-        <v>5556</v>
+        <v>5210</v>
       </c>
       <c r="F23" s="16">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="G23" s="17">
         <v>185835</v>
@@ -2416,13 +2418,13 @@
         <v>1000</v>
       </c>
       <c r="D24" s="16">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="E24" s="16">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="F24" s="16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G24" s="17">
         <v>7291</v>
@@ -2451,10 +2453,10 @@
         <v>100</v>
       </c>
       <c r="D25" s="16">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E25" s="16">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F25" s="16">
         <v>1</v>
@@ -2521,10 +2523,10 @@
         <v>1500</v>
       </c>
       <c r="D27" s="16">
-        <v>920</v>
+        <v>898</v>
       </c>
       <c r="E27" s="16">
-        <v>895</v>
+        <v>873</v>
       </c>
       <c r="F27" s="16">
         <v>25</v>
@@ -2556,13 +2558,13 @@
         <v>500</v>
       </c>
       <c r="D28" s="16">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="E28" s="16">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="F28" s="16">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G28" s="17">
         <v>14721</v>
@@ -2591,13 +2593,13 @@
         <v>2800</v>
       </c>
       <c r="D29" s="16">
-        <v>1147</v>
+        <v>1092</v>
       </c>
       <c r="E29" s="16">
-        <v>1096</v>
+        <v>1042</v>
       </c>
       <c r="F29" s="16">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" s="17">
         <v>39423</v>
@@ -2626,13 +2628,13 @@
         <v>1200</v>
       </c>
       <c r="D30" s="16">
-        <v>986</v>
+        <v>921</v>
       </c>
       <c r="E30" s="16">
-        <v>918</v>
+        <v>857</v>
       </c>
       <c r="F30" s="16">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G30" s="17">
         <v>33813</v>
@@ -2661,13 +2663,13 @@
         <v>1000</v>
       </c>
       <c r="D31" s="16">
-        <v>792</v>
+        <v>752</v>
       </c>
       <c r="E31" s="16">
-        <v>741</v>
+        <v>710</v>
       </c>
       <c r="F31" s="16">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G31" s="17">
         <v>17169</v>
@@ -2696,10 +2698,10 @@
         <v>500</v>
       </c>
       <c r="D32" s="16">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E32" s="16">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F32" s="16">
         <v>124</v>
@@ -2731,13 +2733,13 @@
         <v>33950</v>
       </c>
       <c r="D33" s="16">
-        <v>25852</v>
+        <v>25638</v>
       </c>
       <c r="E33" s="16">
-        <v>22411</v>
+        <v>22251</v>
       </c>
       <c r="F33" s="16">
-        <v>3441</v>
+        <v>3387</v>
       </c>
       <c r="G33" s="17">
         <v>315242</v>
@@ -2766,13 +2768,13 @@
         <v>100</v>
       </c>
       <c r="D34" s="16">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="E34" s="16">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F34" s="16">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G34" s="17">
         <v>10054</v>
@@ -2801,10 +2803,10 @@
         <v>200</v>
       </c>
       <c r="D35" s="16">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E35" s="16">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F35" s="16">
         <v>11</v>
@@ -2836,13 +2838,13 @@
         <v>300</v>
       </c>
       <c r="D36" s="16">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E36" s="16">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F36" s="16">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G36" s="17">
         <v>24447</v>
@@ -2871,10 +2873,10 @@
         <v>300</v>
       </c>
       <c r="D37" s="16">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E37" s="16">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F37" s="16">
         <v>3</v>
@@ -2906,13 +2908,13 @@
         <v>2900</v>
       </c>
       <c r="D38" s="16">
-        <v>1384</v>
+        <v>1263</v>
       </c>
       <c r="E38" s="16">
-        <v>1255</v>
+        <v>1141</v>
       </c>
       <c r="F38" s="16">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G38" s="17">
         <v>34171</v>
@@ -2941,13 +2943,13 @@
         <v>4000</v>
       </c>
       <c r="D39" s="16">
-        <v>1675</v>
+        <v>1592</v>
       </c>
       <c r="E39" s="16">
-        <v>1614</v>
+        <v>1541</v>
       </c>
       <c r="F39" s="16">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G39" s="17">
         <v>41571</v>
@@ -2976,10 +2978,10 @@
         <v>900</v>
       </c>
       <c r="D40" s="16">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E40" s="16">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F40" s="16">
         <v>5</v>
@@ -3011,10 +3013,10 @@
         <v>300</v>
       </c>
       <c r="D41" s="16">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="E41" s="16">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="F41" s="16">
         <v>74</v>
@@ -3046,13 +3048,13 @@
         <v>100</v>
       </c>
       <c r="D42" s="16">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E42" s="16">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F42" s="16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G42" s="17">
         <v>2167</v>
@@ -3081,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="16">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="E43" s="16">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="F43" s="16">
         <v>12</v>
@@ -3116,10 +3118,10 @@
         <v>600</v>
       </c>
       <c r="D44" s="16">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E44" s="16">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F44" s="16">
         <v>14</v>
@@ -3151,13 +3153,13 @@
         <v>39900</v>
       </c>
       <c r="D45" s="16">
-        <v>33295</v>
+        <v>31695</v>
       </c>
       <c r="E45" s="16">
-        <v>29298</v>
+        <v>27791</v>
       </c>
       <c r="F45" s="16">
-        <v>3997</v>
+        <v>3904</v>
       </c>
       <c r="G45" s="17">
         <v>806242</v>
@@ -3186,10 +3188,10 @@
         <v>300</v>
       </c>
       <c r="D46" s="16">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="E46" s="16">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="F46" s="16">
         <v>1</v>
@@ -3221,13 +3223,13 @@
         <v>600</v>
       </c>
       <c r="D47" s="16">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="E47" s="16">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F47" s="16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G47" s="17">
         <v>17682</v>
@@ -3256,13 +3258,13 @@
         <v>8600</v>
       </c>
       <c r="D48" s="16">
-        <v>5042</v>
+        <v>4877</v>
       </c>
       <c r="E48" s="16">
-        <v>4460</v>
+        <v>4312</v>
       </c>
       <c r="F48" s="16">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="G48" s="17">
         <v>125758</v>
@@ -3291,10 +3293,10 @@
         <v>500</v>
       </c>
       <c r="D49" s="16">
-        <v>545</v>
+        <v>497</v>
       </c>
       <c r="E49" s="16">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="F49" s="16">
         <v>5</v>
@@ -3326,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="D50" s="16">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E50" s="16">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F50" s="16">
         <v>13</v>
@@ -3361,13 +3363,13 @@
         <v>1500</v>
       </c>
       <c r="D51" s="16">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="E51" s="16">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="F51" s="16">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G51" s="17">
         <v>32501</v>
@@ -3396,13 +3398,13 @@
         <v>1600</v>
       </c>
       <c r="D52" s="16">
-        <v>1277</v>
+        <v>1253</v>
       </c>
       <c r="E52" s="16">
-        <v>1200</v>
+        <v>1177</v>
       </c>
       <c r="F52" s="16">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G52" s="17">
         <v>58277</v>
@@ -3431,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="D53" s="16">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E53" s="16">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F53" s="16">
         <v>0</v>
@@ -3466,10 +3468,10 @@
         <v>200</v>
       </c>
       <c r="D54" s="16">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E54" s="16">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F54" s="16">
         <v>2</v>
@@ -3501,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="D55" s="16">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="E55" s="16">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="F55" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G55" s="17">
         <v>2687</v>
@@ -3536,10 +3538,10 @@
         <v>200</v>
       </c>
       <c r="D56" s="16">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E56" s="16">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F56" s="16">
         <v>16</v>
@@ -3571,10 +3573,10 @@
         <v>200</v>
       </c>
       <c r="D57" s="16">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E57" s="16">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F57" s="16">
         <v>0</v>
@@ -3606,10 +3608,10 @@
         <v>700</v>
       </c>
       <c r="D58" s="16">
-        <v>273</v>
+        <v>184</v>
       </c>
       <c r="E58" s="16">
-        <v>273</v>
+        <v>184</v>
       </c>
       <c r="F58" s="16">
         <v>0</v>
@@ -3641,13 +3643,13 @@
         <v>184875</v>
       </c>
       <c r="D59" s="16">
-        <v>96266</v>
+        <v>88248</v>
       </c>
       <c r="E59" s="16">
-        <v>81643</v>
+        <v>73879</v>
       </c>
       <c r="F59" s="16">
-        <v>14623</v>
+        <v>14369</v>
       </c>
       <c r="G59" s="17">
         <v>2015538</v>
@@ -3676,10 +3678,10 @@
         <v>500</v>
       </c>
       <c r="D60" s="16">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E60" s="16">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F60" s="16">
         <v>14</v>
@@ -3711,10 +3713,10 @@
         <v>1100</v>
       </c>
       <c r="D61" s="16">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="E61" s="16">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="F61" s="16">
         <v>11</v>
@@ -3746,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="D62" s="16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E62" s="16">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F62" s="16">
         <v>6</v>
@@ -3781,13 +3783,13 @@
         <v>32400</v>
       </c>
       <c r="D63" s="16">
-        <v>19932</v>
+        <v>18922</v>
       </c>
       <c r="E63" s="16">
-        <v>17636</v>
+        <v>16671</v>
       </c>
       <c r="F63" s="16">
-        <v>2296</v>
+        <v>2251</v>
       </c>
       <c r="G63" s="17">
         <v>702429</v>
@@ -3816,13 +3818,13 @@
         <v>700</v>
       </c>
       <c r="D64" s="16">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E64" s="16">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F64" s="16">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G64" s="17">
         <v>16610</v>
@@ -3851,10 +3853,10 @@
         <v>0</v>
       </c>
       <c r="D65" s="16">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E65" s="16">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F65" s="16">
         <v>1</v>
@@ -3886,10 +3888,10 @@
         <v>500</v>
       </c>
       <c r="D66" s="16">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E66" s="16">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F66" s="16">
         <v>0</v>
@@ -3921,10 +3923,10 @@
         <v>100</v>
       </c>
       <c r="D67" s="16">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E67" s="16">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F67" s="16">
         <v>2</v>
@@ -3956,13 +3958,13 @@
         <v>200</v>
       </c>
       <c r="D68" s="16">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E68" s="16">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F68" s="16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G68" s="17">
         <v>8359</v>
@@ -3991,10 +3993,10 @@
         <v>600</v>
       </c>
       <c r="D69" s="16">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E69" s="16">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="F69" s="16">
         <v>19</v>
@@ -4026,13 +4028,13 @@
         <v>10900</v>
       </c>
       <c r="D70" s="16">
-        <v>5489</v>
+        <v>5399</v>
       </c>
       <c r="E70" s="16">
-        <v>5135</v>
+        <v>5046</v>
       </c>
       <c r="F70" s="16">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G70" s="17">
         <v>123303</v>
@@ -4061,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="D71" s="16">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E71" s="16">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F71" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G71" s="17">
         <v>1605</v>
@@ -4096,13 +4098,13 @@
         <v>79400</v>
       </c>
       <c r="D72" s="16">
-        <v>57016</v>
+        <v>53993</v>
       </c>
       <c r="E72" s="16">
-        <v>49796</v>
+        <v>47189</v>
       </c>
       <c r="F72" s="16">
-        <v>7220</v>
+        <v>6804</v>
       </c>
       <c r="G72" s="17">
         <v>640715</v>
@@ -4131,13 +4133,13 @@
         <v>4600</v>
       </c>
       <c r="D73" s="16">
-        <v>5804</v>
+        <v>5503</v>
       </c>
       <c r="E73" s="16">
-        <v>5085</v>
+        <v>4792</v>
       </c>
       <c r="F73" s="16">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="G73" s="17">
         <v>146536</v>
@@ -4166,10 +4168,10 @@
         <v>700</v>
       </c>
       <c r="D74" s="16">
-        <v>1041</v>
+        <v>1007</v>
       </c>
       <c r="E74" s="16">
-        <v>969</v>
+        <v>935</v>
       </c>
       <c r="F74" s="16">
         <v>72</v>
@@ -4201,10 +4203,10 @@
         <v>300</v>
       </c>
       <c r="D75" s="16">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="E75" s="16">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="F75" s="16">
         <v>21</v>
@@ -4236,13 +4238,13 @@
         <v>2300</v>
       </c>
       <c r="D76" s="16">
-        <v>1447</v>
+        <v>1343</v>
       </c>
       <c r="E76" s="16">
-        <v>1409</v>
+        <v>1311</v>
       </c>
       <c r="F76" s="16">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G76" s="17">
         <v>29681</v>
@@ -4271,13 +4273,13 @@
         <v>1200</v>
       </c>
       <c r="D77" s="16">
-        <v>840</v>
+        <v>768</v>
       </c>
       <c r="E77" s="16">
-        <v>817</v>
+        <v>746</v>
       </c>
       <c r="F77" s="16">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G77" s="17">
         <v>21209</v>
@@ -4306,10 +4308,10 @@
         <v>200</v>
       </c>
       <c r="D78" s="16">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E78" s="16">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F78" s="16">
         <v>3</v>
@@ -4341,13 +4343,13 @@
         <v>200</v>
       </c>
       <c r="D79" s="16">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="E79" s="16">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="F79" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G79" s="17">
         <v>4283</v>
@@ -4376,10 +4378,10 @@
         <v>100</v>
       </c>
       <c r="D80" s="16">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E80" s="16">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" s="16">
         <v>2</v>
@@ -4411,13 +4413,13 @@
         <v>34400</v>
       </c>
       <c r="D81" s="16">
-        <v>33698</v>
+        <v>31305</v>
       </c>
       <c r="E81" s="16">
-        <v>28260</v>
+        <v>26156</v>
       </c>
       <c r="F81" s="16">
-        <v>5438</v>
+        <v>5149</v>
       </c>
       <c r="G81" s="17">
         <v>626861</v>
@@ -4446,10 +4448,10 @@
         <v>400</v>
       </c>
       <c r="D82" s="16">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E82" s="16">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F82" s="16">
         <v>10</v>
@@ -4481,13 +4483,13 @@
         <v>1100</v>
       </c>
       <c r="D83" s="16">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E83" s="16">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="F83" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83" s="17">
         <v>16551</v>
@@ -4516,10 +4518,10 @@
         <v>1500</v>
       </c>
       <c r="D84" s="16">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E84" s="16">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F84" s="16">
         <v>11</v>
@@ -4551,10 +4553,10 @@
         <v>1100</v>
       </c>
       <c r="D85" s="16">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E85" s="16">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F85" s="16">
         <v>7</v>
@@ -4586,13 +4588,13 @@
         <v>21900</v>
       </c>
       <c r="D86" s="16">
-        <v>20994</v>
+        <v>20266</v>
       </c>
       <c r="E86" s="16">
-        <v>17525</v>
+        <v>16873</v>
       </c>
       <c r="F86" s="16">
-        <v>3469</v>
+        <v>3393</v>
       </c>
       <c r="G86" s="17">
         <v>267032</v>
@@ -4621,10 +4623,10 @@
         <v>0</v>
       </c>
       <c r="D87" s="16">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E87" s="16">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F87" s="16">
         <v>9</v>
@@ -4656,10 +4658,10 @@
         <v>1900</v>
       </c>
       <c r="D88" s="16">
-        <v>1092</v>
+        <v>1077</v>
       </c>
       <c r="E88" s="16">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="F88" s="16">
         <v>20</v>
@@ -4691,13 +4693,13 @@
         <v>0</v>
       </c>
       <c r="D89" s="16">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E89" s="16">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F89" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89" s="17">
         <v>1108</v>
@@ -4726,13 +4728,13 @@
         <v>100</v>
       </c>
       <c r="D90" s="16">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E90" s="16">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F90" s="16">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G90" s="17">
         <v>6615</v>
@@ -4761,10 +4763,10 @@
         <v>1200</v>
       </c>
       <c r="D91" s="16">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E91" s="16">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F91" s="16">
         <v>13</v>
@@ -4796,10 +4798,10 @@
         <v>1200</v>
       </c>
       <c r="D92" s="16">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="E92" s="16">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="F92" s="16">
         <v>8</v>
@@ -4831,13 +4833,13 @@
         <v>16975</v>
       </c>
       <c r="D93" s="16">
-        <v>5274</v>
+        <v>5155</v>
       </c>
       <c r="E93" s="16">
-        <v>5002</v>
+        <v>4936</v>
       </c>
       <c r="F93" s="16">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="G93" s="17">
         <v>107568</v>
@@ -4866,13 +4868,13 @@
         <v>10950</v>
       </c>
       <c r="D94" s="16">
-        <v>5364</v>
+        <v>5274</v>
       </c>
       <c r="E94" s="16">
-        <v>4344</v>
+        <v>4284</v>
       </c>
       <c r="F94" s="16">
-        <v>1020</v>
+        <v>990</v>
       </c>
       <c r="G94" s="17">
         <v>97771</v>
@@ -4901,13 +4903,13 @@
         <v>1000</v>
       </c>
       <c r="D95" s="16">
-        <v>734</v>
+        <v>681</v>
       </c>
       <c r="E95" s="16">
-        <v>712</v>
+        <v>661</v>
       </c>
       <c r="F95" s="16">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G95" s="17">
         <v>23692</v>
@@ -4936,13 +4938,13 @@
         <v>5300</v>
       </c>
       <c r="D96" s="16">
-        <v>4380</v>
+        <v>4284</v>
       </c>
       <c r="E96" s="16">
-        <v>3817</v>
+        <v>3729</v>
       </c>
       <c r="F96" s="16">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="G96" s="17">
         <v>130156</v>
@@ -4971,10 +4973,10 @@
         <v>2600</v>
       </c>
       <c r="D97" s="16">
-        <v>1528</v>
+        <v>1499</v>
       </c>
       <c r="E97" s="16">
-        <v>1450</v>
+        <v>1421</v>
       </c>
       <c r="F97" s="16">
         <v>78</v>
@@ -5006,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="D98" s="16">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E98" s="16">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="F98" s="16">
         <v>4</v>
@@ -5041,10 +5043,10 @@
         <v>1200</v>
       </c>
       <c r="D99" s="16">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E99" s="16">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F99" s="16">
         <v>3</v>
@@ -5076,10 +5078,10 @@
         <v>400</v>
       </c>
       <c r="D100" s="16">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E100" s="16">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F100" s="16">
         <v>2</v>
@@ -5111,10 +5113,10 @@
         <v>500</v>
       </c>
       <c r="D101" s="16">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E101" s="16">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F101" s="16">
         <v>6</v>
@@ -5146,10 +5148,10 @@
         <v>3400</v>
       </c>
       <c r="D102" s="16">
-        <v>1621</v>
+        <v>1559</v>
       </c>
       <c r="E102" s="16">
-        <v>1561</v>
+        <v>1499</v>
       </c>
       <c r="F102" s="16">
         <v>60</v>
@@ -5181,13 +5183,13 @@
         <v>391825</v>
       </c>
       <c r="D103" s="16">
-        <v>202642</v>
+        <v>190437</v>
       </c>
       <c r="E103" s="16">
-        <v>170144</v>
+        <v>159031</v>
       </c>
       <c r="F103" s="16">
-        <v>32498</v>
+        <v>31406</v>
       </c>
       <c r="G103" s="17">
         <v>3573784</v>
@@ -5216,13 +5218,13 @@
         <v>2200</v>
       </c>
       <c r="D104" s="16">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="E104" s="16">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="F104" s="16">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G104" s="17">
         <v>53015</v>
@@ -5251,10 +5253,10 @@
         <v>0</v>
       </c>
       <c r="D105" s="16">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E105" s="16">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F105" s="16">
         <v>1</v>
@@ -5286,10 +5288,10 @@
         <v>100</v>
       </c>
       <c r="D106" s="16">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E106" s="16">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F106" s="16">
         <v>7</v>
@@ -5321,13 +5323,13 @@
         <v>12750</v>
       </c>
       <c r="D107" s="16">
-        <v>8111</v>
+        <v>7466</v>
       </c>
       <c r="E107" s="16">
-        <v>7280</v>
+        <v>6670</v>
       </c>
       <c r="F107" s="16">
-        <v>831</v>
+        <v>796</v>
       </c>
       <c r="G107" s="17">
         <v>183387</v>
@@ -5356,10 +5358,10 @@
         <v>800</v>
       </c>
       <c r="D108" s="16">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E108" s="16">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F108" s="16">
         <v>1</v>
@@ -5391,13 +5393,13 @@
         <v>3300</v>
       </c>
       <c r="D109" s="16">
-        <v>2014</v>
+        <v>1882</v>
       </c>
       <c r="E109" s="16">
-        <v>1795</v>
+        <v>1698</v>
       </c>
       <c r="F109" s="16">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="G109" s="17">
         <v>67614</v>
@@ -5426,13 +5428,13 @@
         <v>75175</v>
       </c>
       <c r="D110" s="16">
-        <v>28844</v>
+        <v>28508</v>
       </c>
       <c r="E110" s="16">
-        <v>25016</v>
+        <v>24686</v>
       </c>
       <c r="F110" s="16">
-        <v>3828</v>
+        <v>3822</v>
       </c>
       <c r="G110" s="17">
         <v>649795</v>
@@ -5461,13 +5463,13 @@
         <v>900</v>
       </c>
       <c r="D111" s="16">
-        <v>1126</v>
+        <v>1096</v>
       </c>
       <c r="E111" s="16">
-        <v>1081</v>
+        <v>1052</v>
       </c>
       <c r="F111" s="16">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G111" s="17">
         <v>29221</v>
@@ -5496,10 +5498,10 @@
         <v>700</v>
       </c>
       <c r="D112" s="16">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="E112" s="16">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="F112" s="16">
         <v>107</v>
@@ -5531,13 +5533,13 @@
         <v>2100</v>
       </c>
       <c r="D113" s="16">
-        <v>1234</v>
+        <v>1193</v>
       </c>
       <c r="E113" s="16">
-        <v>1182</v>
+        <v>1146</v>
       </c>
       <c r="F113" s="16">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G113" s="17">
         <v>50235</v>
@@ -5566,10 +5568,10 @@
         <v>1200</v>
       </c>
       <c r="D114" s="16">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="E114" s="16">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="F114" s="16">
         <v>95</v>
@@ -5601,10 +5603,10 @@
         <v>1500</v>
       </c>
       <c r="D115" s="16">
-        <v>992</v>
+        <v>924</v>
       </c>
       <c r="E115" s="16">
-        <v>983</v>
+        <v>915</v>
       </c>
       <c r="F115" s="16">
         <v>9</v>
@@ -5636,10 +5638,10 @@
         <v>2500</v>
       </c>
       <c r="D116" s="16">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="E116" s="16">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="F116" s="16">
         <v>22</v>
@@ -5671,13 +5673,13 @@
         <v>0</v>
       </c>
       <c r="D117" s="16">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E117" s="16">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F117" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G117" s="17">
         <v>2968</v>
@@ -5706,13 +5708,13 @@
         <v>4900</v>
       </c>
       <c r="D118" s="16">
-        <v>2783</v>
+        <v>2701</v>
       </c>
       <c r="E118" s="16">
-        <v>2584</v>
+        <v>2505</v>
       </c>
       <c r="F118" s="16">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G118" s="17">
         <v>77702</v>
@@ -5741,10 +5743,10 @@
         <v>500</v>
       </c>
       <c r="D119" s="16">
-        <v>661</v>
+        <v>616</v>
       </c>
       <c r="E119" s="16">
-        <v>648</v>
+        <v>603</v>
       </c>
       <c r="F119" s="16">
         <v>13</v>
@@ -5776,13 +5778,13 @@
         <v>0</v>
       </c>
       <c r="D120" s="16">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E120" s="16">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F120" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G120" s="17">
         <v>1345</v>
@@ -5811,10 +5813,10 @@
         <v>300</v>
       </c>
       <c r="D121" s="16">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E121" s="16">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F121" s="16">
         <v>18</v>
@@ -5846,10 +5848,10 @@
         <v>1200</v>
       </c>
       <c r="D122" s="16">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="E122" s="16">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="F122" s="16">
         <v>37</v>
@@ -5881,10 +5883,10 @@
         <v>1900</v>
       </c>
       <c r="D123" s="16">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="E123" s="16">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="F123" s="16">
         <v>23</v>
@@ -5916,10 +5918,10 @@
         <v>0</v>
       </c>
       <c r="D124" s="16">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E124" s="16">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F124" s="16">
         <v>0</v>
@@ -5951,13 +5953,13 @@
         <v>15550</v>
       </c>
       <c r="D125" s="16">
-        <v>4575</v>
+        <v>4339</v>
       </c>
       <c r="E125" s="16">
-        <v>4244</v>
+        <v>4011</v>
       </c>
       <c r="F125" s="16">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G125" s="17">
         <v>198728</v>
@@ -5986,10 +5988,10 @@
         <v>100</v>
       </c>
       <c r="D126" s="16">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E126" s="16">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F126" s="16">
         <v>1</v>
@@ -6021,13 +6023,13 @@
         <v>1000</v>
       </c>
       <c r="D127" s="16">
-        <v>1120</v>
+        <v>1098</v>
       </c>
       <c r="E127" s="16">
-        <v>1047</v>
+        <v>1028</v>
       </c>
       <c r="F127" s="16">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G127" s="17">
         <v>29988</v>
@@ -6056,13 +6058,13 @@
         <v>2800</v>
       </c>
       <c r="D128" s="16">
-        <v>4321</v>
+        <v>4150</v>
       </c>
       <c r="E128" s="16">
-        <v>3782</v>
+        <v>3627</v>
       </c>
       <c r="F128" s="16">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="G128" s="17">
         <v>135188</v>
@@ -6091,10 +6093,10 @@
         <v>100</v>
       </c>
       <c r="D129" s="16">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E129" s="16">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F129" s="16">
         <v>101</v>
@@ -6126,10 +6128,10 @@
         <v>800</v>
       </c>
       <c r="D130" s="16">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E130" s="16">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F130" s="16">
         <v>8</v>
@@ -6161,13 +6163,13 @@
         <v>3250</v>
       </c>
       <c r="D131" s="16">
-        <v>4189</v>
+        <v>4074</v>
       </c>
       <c r="E131" s="16">
-        <v>3641</v>
+        <v>3532</v>
       </c>
       <c r="F131" s="16">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G131" s="17">
         <v>104736</v>
@@ -6196,13 +6198,13 @@
         <v>2300</v>
       </c>
       <c r="D132" s="16">
-        <v>2412</v>
+        <v>2260</v>
       </c>
       <c r="E132" s="16">
-        <v>1969</v>
+        <v>1825</v>
       </c>
       <c r="F132" s="16">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G132" s="17">
         <v>38074</v>
@@ -6231,10 +6233,10 @@
         <v>0</v>
       </c>
       <c r="D133" s="16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E133" s="16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F133" s="16">
         <v>1</v>
@@ -6301,13 +6303,13 @@
         <v>3100</v>
       </c>
       <c r="D135" s="16">
-        <v>1298</v>
+        <v>1223</v>
       </c>
       <c r="E135" s="16">
-        <v>1285</v>
+        <v>1211</v>
       </c>
       <c r="F135" s="16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G135" s="17">
         <v>43611</v>
@@ -6336,13 +6338,13 @@
         <v>300</v>
       </c>
       <c r="D136" s="16">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E136" s="16">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F136" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G136" s="17">
         <v>3844</v>
@@ -6406,10 +6408,10 @@
         <v>0</v>
       </c>
       <c r="D138" s="16">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E138" s="16">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F138" s="16">
         <v>0</v>
@@ -6441,13 +6443,13 @@
         <v>800</v>
       </c>
       <c r="D139" s="16">
-        <v>942</v>
+        <v>881</v>
       </c>
       <c r="E139" s="16">
-        <v>886</v>
+        <v>827</v>
       </c>
       <c r="F139" s="16">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G139" s="17">
         <v>25862</v>
@@ -6476,10 +6478,10 @@
         <v>300</v>
       </c>
       <c r="D140" s="16">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E140" s="16">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F140" s="16">
         <v>3</v>
@@ -6546,13 +6548,13 @@
         <v>3100</v>
       </c>
       <c r="D142" s="16">
-        <v>1654</v>
+        <v>1623</v>
       </c>
       <c r="E142" s="16">
-        <v>1634</v>
+        <v>1604</v>
       </c>
       <c r="F142" s="16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G142" s="17">
         <v>40212</v>
@@ -6581,10 +6583,10 @@
         <v>200</v>
       </c>
       <c r="D143" s="16">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="E143" s="16">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F143" s="16">
         <v>34</v>
@@ -6616,10 +6618,10 @@
         <v>200</v>
       </c>
       <c r="D144" s="16">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="E144" s="16">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="F144" s="16">
         <v>40</v>
@@ -6651,10 +6653,10 @@
         <v>1600</v>
       </c>
       <c r="D145" s="16">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="E145" s="16">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="F145" s="16">
         <v>36</v>
@@ -6686,13 +6688,13 @@
         <v>600</v>
       </c>
       <c r="D146" s="16">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="E146" s="16">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F146" s="16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G146" s="17">
         <v>13837</v>
@@ -6721,10 +6723,10 @@
         <v>500</v>
       </c>
       <c r="D147" s="16">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E147" s="16">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F147" s="16">
         <v>6</v>
@@ -6756,13 +6758,13 @@
         <v>3300</v>
       </c>
       <c r="D148" s="16">
-        <v>1770</v>
+        <v>1689</v>
       </c>
       <c r="E148" s="16">
-        <v>1678</v>
+        <v>1602</v>
       </c>
       <c r="F148" s="16">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G148" s="17">
         <v>70912</v>
@@ -6791,10 +6793,10 @@
         <v>1100</v>
       </c>
       <c r="D149" s="16">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E149" s="16">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F149" s="16">
         <v>11</v>
@@ -6826,10 +6828,10 @@
         <v>0</v>
       </c>
       <c r="D150" s="16">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E150" s="16">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F150" s="16">
         <v>1</v>
@@ -6861,10 +6863,10 @@
         <v>200</v>
       </c>
       <c r="D151" s="16">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E151" s="16">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F151" s="16">
         <v>8</v>
@@ -6896,13 +6898,13 @@
         <v>100</v>
       </c>
       <c r="D152" s="16">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="E152" s="16">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="F152" s="16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G152" s="17">
         <v>18642</v>
@@ -6966,13 +6968,13 @@
         <v>58050</v>
       </c>
       <c r="D154" s="16">
-        <v>26203</v>
+        <v>25592</v>
       </c>
       <c r="E154" s="16">
-        <v>21423</v>
+        <v>20816</v>
       </c>
       <c r="F154" s="16">
-        <v>4780</v>
+        <v>4776</v>
       </c>
       <c r="G154" s="17">
         <v>243899</v>
@@ -7001,10 +7003,10 @@
         <v>200</v>
       </c>
       <c r="D155" s="16">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E155" s="16">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F155" s="16">
         <v>34</v>
@@ -7036,13 +7038,13 @@
         <v>500</v>
       </c>
       <c r="D156" s="16">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E156" s="16">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F156" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G156" s="17">
         <v>11353</v>
@@ -7071,10 +7073,10 @@
         <v>0</v>
       </c>
       <c r="D157" s="16">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E157" s="16">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F157" s="16">
         <v>26</v>
@@ -7141,10 +7143,10 @@
         <v>200</v>
       </c>
       <c r="D159" s="16">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E159" s="16">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F159" s="16">
         <v>15</v>
@@ -7176,10 +7178,10 @@
         <v>2400</v>
       </c>
       <c r="D160" s="16">
-        <v>555</v>
+        <v>523</v>
       </c>
       <c r="E160" s="16">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="F160" s="16">
         <v>10</v>
@@ -7211,13 +7213,13 @@
         <v>2400</v>
       </c>
       <c r="D161" s="16">
-        <v>1736</v>
+        <v>1272</v>
       </c>
       <c r="E161" s="16">
-        <v>1728</v>
+        <v>1266</v>
       </c>
       <c r="F161" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G161" s="17">
         <v>42357</v>
@@ -7246,13 +7248,13 @@
         <v>400</v>
       </c>
       <c r="D162" s="16">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E162" s="16">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F162" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G162" s="17">
         <v>6675</v>
@@ -7281,13 +7283,13 @@
         <v>14500</v>
       </c>
       <c r="D163" s="16">
-        <v>9502</v>
+        <v>9302</v>
       </c>
       <c r="E163" s="16">
-        <v>8597</v>
+        <v>8418</v>
       </c>
       <c r="F163" s="16">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="G163" s="17">
         <v>198642</v>
@@ -7319,10 +7321,10 @@
         <v>9</v>
       </c>
       <c r="E164" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F164" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164" s="17">
         <v>640</v>
@@ -7351,13 +7353,13 @@
         <v>1000</v>
       </c>
       <c r="D165" s="16">
-        <v>1629</v>
+        <v>1588</v>
       </c>
       <c r="E165" s="16">
-        <v>1500</v>
+        <v>1466</v>
       </c>
       <c r="F165" s="16">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G165" s="17">
         <v>42991</v>
@@ -7386,10 +7388,10 @@
         <v>0</v>
       </c>
       <c r="D166" s="16">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E166" s="16">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F166" s="16">
         <v>9</v>
@@ -7421,13 +7423,13 @@
         <v>6300</v>
       </c>
       <c r="D167" s="16">
-        <v>4978</v>
+        <v>4858</v>
       </c>
       <c r="E167" s="16">
-        <v>3616</v>
+        <v>3500</v>
       </c>
       <c r="F167" s="16">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="G167" s="17">
         <v>132357</v>
@@ -7456,10 +7458,10 @@
         <v>1400</v>
       </c>
       <c r="D168" s="16">
-        <v>1060</v>
+        <v>992</v>
       </c>
       <c r="E168" s="16">
-        <v>1037</v>
+        <v>969</v>
       </c>
       <c r="F168" s="16">
         <v>23</v>
@@ -7491,10 +7493,10 @@
         <v>200</v>
       </c>
       <c r="D169" s="16">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E169" s="16">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F169" s="16">
         <v>5</v>
@@ -7526,10 +7528,10 @@
         <v>600</v>
       </c>
       <c r="D170" s="16">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E170" s="16">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F170" s="16">
         <v>1</v>
@@ -7561,10 +7563,10 @@
         <v>200</v>
       </c>
       <c r="D171" s="16">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E171" s="16">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F171" s="16">
         <v>63</v>
@@ -7596,13 +7598,13 @@
         <v>36475</v>
       </c>
       <c r="D172" s="16">
-        <v>15732</v>
+        <v>14696</v>
       </c>
       <c r="E172" s="16">
-        <v>13783</v>
+        <v>12859</v>
       </c>
       <c r="F172" s="16">
-        <v>1949</v>
+        <v>1837</v>
       </c>
       <c r="G172" s="17">
         <v>470846</v>
@@ -7631,10 +7633,10 @@
         <v>800</v>
       </c>
       <c r="D173" s="16">
-        <v>985</v>
+        <v>901</v>
       </c>
       <c r="E173" s="16">
-        <v>976</v>
+        <v>892</v>
       </c>
       <c r="F173" s="16">
         <v>9</v>
@@ -7666,13 +7668,13 @@
         <v>300</v>
       </c>
       <c r="D174" s="16">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E174" s="16">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F174" s="16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G174" s="17">
         <v>9938</v>
@@ -7701,10 +7703,10 @@
         <v>0</v>
       </c>
       <c r="D175" s="16">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E175" s="16">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F175" s="16">
         <v>1</v>
@@ -7736,10 +7738,10 @@
         <v>5500</v>
       </c>
       <c r="D176" s="16">
-        <v>3694</v>
+        <v>3662</v>
       </c>
       <c r="E176" s="16">
-        <v>3679</v>
+        <v>3647</v>
       </c>
       <c r="F176" s="16">
         <v>15</v>
@@ -7771,13 +7773,13 @@
         <v>1900</v>
       </c>
       <c r="D177" s="16">
-        <v>1163</v>
+        <v>1103</v>
       </c>
       <c r="E177" s="16">
-        <v>1128</v>
+        <v>1071</v>
       </c>
       <c r="F177" s="16">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G177" s="17">
         <v>40888</v>
@@ -7806,10 +7808,10 @@
         <v>400</v>
       </c>
       <c r="D178" s="16">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E178" s="16">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F178" s="16">
         <v>3</v>
@@ -7841,10 +7843,10 @@
         <v>1000</v>
       </c>
       <c r="D179" s="16">
-        <v>953</v>
+        <v>927</v>
       </c>
       <c r="E179" s="16">
-        <v>918</v>
+        <v>892</v>
       </c>
       <c r="F179" s="16">
         <v>35</v>
@@ -7876,13 +7878,13 @@
         <v>34275</v>
       </c>
       <c r="D180" s="16">
-        <v>16343</v>
+        <v>15948</v>
       </c>
       <c r="E180" s="16">
-        <v>13984</v>
+        <v>13706</v>
       </c>
       <c r="F180" s="16">
-        <v>2359</v>
+        <v>2242</v>
       </c>
       <c r="G180" s="17">
         <v>282299</v>
@@ -7911,10 +7913,10 @@
         <v>800</v>
       </c>
       <c r="D181" s="16">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E181" s="16">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F181" s="16">
         <v>3</v>
@@ -7946,10 +7948,10 @@
         <v>0</v>
       </c>
       <c r="D182" s="16">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E182" s="16">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F182" s="16">
         <v>8</v>
@@ -7981,10 +7983,10 @@
         <v>800</v>
       </c>
       <c r="D183" s="16">
-        <v>893</v>
+        <v>848</v>
       </c>
       <c r="E183" s="16">
-        <v>840</v>
+        <v>795</v>
       </c>
       <c r="F183" s="16">
         <v>53</v>
@@ -8016,13 +8018,13 @@
         <v>700</v>
       </c>
       <c r="D184" s="16">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="E184" s="16">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F184" s="16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G184" s="17">
         <v>23268</v>
@@ -8051,10 +8053,10 @@
         <v>1200</v>
       </c>
       <c r="D185" s="16">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="E185" s="16">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F185" s="16">
         <v>33</v>
@@ -8086,13 +8088,13 @@
         <v>4900</v>
       </c>
       <c r="D186" s="16">
-        <v>4264</v>
+        <v>4184</v>
       </c>
       <c r="E186" s="16">
-        <v>3933</v>
+        <v>3867</v>
       </c>
       <c r="F186" s="16">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="G186" s="17">
         <v>112329</v>
@@ -8121,10 +8123,10 @@
         <v>500</v>
       </c>
       <c r="D187" s="16">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E187" s="16">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F187" s="16">
         <v>5</v>
@@ -8156,13 +8158,13 @@
         <v>1200</v>
       </c>
       <c r="D188" s="16">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="E188" s="16">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F188" s="16">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G188" s="17">
         <v>11723</v>
@@ -8191,13 +8193,13 @@
         <v>2500</v>
       </c>
       <c r="D189" s="16">
-        <v>1108</v>
+        <v>1055</v>
       </c>
       <c r="E189" s="16">
-        <v>1080</v>
+        <v>1028</v>
       </c>
       <c r="F189" s="16">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G189" s="17">
         <v>41511</v>
@@ -8226,13 +8228,13 @@
         <v>40950</v>
       </c>
       <c r="D190" s="16">
-        <v>10429</v>
+        <v>10057</v>
       </c>
       <c r="E190" s="16">
-        <v>9864</v>
+        <v>9493</v>
       </c>
       <c r="F190" s="16">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G190" s="17">
         <v>89806</v>
@@ -8296,10 +8298,10 @@
         <v>200</v>
       </c>
       <c r="D192" s="16">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E192" s="16">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F192" s="16">
         <v>19</v>
@@ -8331,13 +8333,13 @@
         <v>4500</v>
       </c>
       <c r="D193" s="16">
-        <v>16124</v>
+        <v>15512</v>
       </c>
       <c r="E193" s="16">
-        <v>15106</v>
+        <v>14495</v>
       </c>
       <c r="F193" s="16">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G193" s="17">
         <v>109144</v>
@@ -8366,13 +8368,13 @@
         <v>100</v>
       </c>
       <c r="D194" s="16">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E194" s="16">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F194" s="16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G194" s="17">
         <v>2900</v>
@@ -8401,10 +8403,10 @@
         <v>0</v>
       </c>
       <c r="D195" s="16">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="E195" s="16">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="F195" s="16">
         <v>1</v>
@@ -8436,10 +8438,10 @@
         <v>200</v>
       </c>
       <c r="D196" s="16">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="E196" s="16">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="F196" s="16">
         <v>3</v>
@@ -8471,10 +8473,10 @@
         <v>400</v>
       </c>
       <c r="D197" s="16">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E197" s="16">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F197" s="16">
         <v>5</v>
@@ -8506,10 +8508,10 @@
         <v>600</v>
       </c>
       <c r="D198" s="16">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E198" s="16">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F198" s="16">
         <v>9</v>
@@ -8541,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="D199" s="16">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E199" s="16">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F199" s="16">
         <v>0</v>
@@ -8576,13 +8578,13 @@
         <v>500</v>
       </c>
       <c r="D200" s="16">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="E200" s="16">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="F200" s="16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G200" s="17">
         <v>14216</v>
@@ -8611,13 +8613,13 @@
         <v>3500</v>
       </c>
       <c r="D201" s="16">
-        <v>3231</v>
+        <v>3129</v>
       </c>
       <c r="E201" s="16">
-        <v>2858</v>
+        <v>2759</v>
       </c>
       <c r="F201" s="16">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G201" s="17">
         <v>81869</v>
@@ -8646,13 +8648,13 @@
         <v>900</v>
       </c>
       <c r="D202" s="16">
-        <v>791</v>
+        <v>711</v>
       </c>
       <c r="E202" s="16">
-        <v>727</v>
+        <v>653</v>
       </c>
       <c r="F202" s="16">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G202" s="17">
         <v>7992</v>
@@ -8681,13 +8683,13 @@
         <v>1000</v>
       </c>
       <c r="D203" s="16">
-        <v>1080</v>
+        <v>989</v>
       </c>
       <c r="E203" s="16">
-        <v>971</v>
+        <v>891</v>
       </c>
       <c r="F203" s="16">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G203" s="17">
         <v>44061</v>
@@ -8716,10 +8718,10 @@
         <v>1200</v>
       </c>
       <c r="D204" s="16">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E204" s="16">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F204" s="16">
         <v>2</v>
@@ -8751,13 +8753,13 @@
         <v>800</v>
       </c>
       <c r="D205" s="16">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E205" s="16">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F205" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G205" s="17">
         <v>6982</v>
@@ -8786,13 +8788,13 @@
         <v>900</v>
       </c>
       <c r="D206" s="16">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="E206" s="16">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="F206" s="16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G206" s="17">
         <v>23713</v>
@@ -8821,13 +8823,13 @@
         <v>800</v>
       </c>
       <c r="D207" s="16">
-        <v>1541</v>
+        <v>1502</v>
       </c>
       <c r="E207" s="16">
-        <v>1380</v>
+        <v>1351</v>
       </c>
       <c r="F207" s="16">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G207" s="17">
         <v>51382</v>
@@ -8856,13 +8858,13 @@
         <v>200</v>
       </c>
       <c r="D208" s="16">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E208" s="16">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F208" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G208" s="17">
         <v>5108</v>
@@ -8891,10 +8893,10 @@
         <v>200</v>
       </c>
       <c r="D209" s="16">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E209" s="16">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F209" s="16">
         <v>22</v>
@@ -8926,13 +8928,13 @@
         <v>500</v>
       </c>
       <c r="D210" s="16">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E210" s="16">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F210" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G210" s="17">
         <v>12956</v>
@@ -8996,10 +8998,10 @@
         <v>1200</v>
       </c>
       <c r="D212" s="16">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E212" s="16">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F212" s="16">
         <v>4</v>
@@ -9031,10 +9033,10 @@
         <v>0</v>
       </c>
       <c r="D213" s="16">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E213" s="16">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F213" s="16">
         <v>1</v>
@@ -9066,13 +9068,13 @@
         <v>34500</v>
       </c>
       <c r="D214" s="16">
-        <v>14840</v>
+        <v>13691</v>
       </c>
       <c r="E214" s="16">
-        <v>12727</v>
+        <v>11911</v>
       </c>
       <c r="F214" s="16">
-        <v>2113</v>
+        <v>1780</v>
       </c>
       <c r="G214" s="17">
         <v>181426</v>
@@ -9101,10 +9103,10 @@
         <v>0</v>
       </c>
       <c r="D215" s="16">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E215" s="16">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F215" s="16">
         <v>13</v>
@@ -9136,13 +9138,13 @@
         <v>2300</v>
       </c>
       <c r="D216" s="16">
-        <v>1924</v>
+        <v>1905</v>
       </c>
       <c r="E216" s="16">
-        <v>1851</v>
+        <v>1833</v>
       </c>
       <c r="F216" s="16">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G216" s="17">
         <v>46042</v>
@@ -9171,10 +9173,10 @@
         <v>300</v>
       </c>
       <c r="D217" s="16">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E217" s="16">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F217" s="16">
         <v>8</v>
@@ -9206,10 +9208,10 @@
         <v>0</v>
       </c>
       <c r="D218" s="16">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E218" s="16">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F218" s="16">
         <v>1</v>
@@ -9276,10 +9278,10 @@
         <v>100</v>
       </c>
       <c r="D220" s="16">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="E220" s="16">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="F220" s="16">
         <v>17</v>
@@ -9311,10 +9313,10 @@
         <v>100</v>
       </c>
       <c r="D221" s="16">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="E221" s="16">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="F221" s="16">
         <v>5</v>
@@ -9346,13 +9348,13 @@
         <v>178725</v>
       </c>
       <c r="D222" s="16">
-        <v>65142</v>
+        <v>61868</v>
       </c>
       <c r="E222" s="16">
-        <v>59542</v>
+        <v>56504</v>
       </c>
       <c r="F222" s="16">
-        <v>5600</v>
+        <v>5364</v>
       </c>
       <c r="G222" s="17">
         <v>1596169</v>
@@ -9381,13 +9383,13 @@
         <v>11350</v>
       </c>
       <c r="D223" s="16">
-        <v>9064</v>
+        <v>8864</v>
       </c>
       <c r="E223" s="16">
-        <v>6412</v>
+        <v>6214</v>
       </c>
       <c r="F223" s="16">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="G223" s="17">
         <v>108531</v>
@@ -9451,10 +9453,10 @@
         <v>1300</v>
       </c>
       <c r="D225" s="16">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="E225" s="16">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F225" s="16">
         <v>20</v>
@@ -9486,10 +9488,10 @@
         <v>100</v>
       </c>
       <c r="D226" s="16">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E226" s="16">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F226" s="16">
         <v>0</v>
@@ -9521,13 +9523,13 @@
         <v>2200</v>
       </c>
       <c r="D227" s="16">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E227" s="16">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="F227" s="16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G227" s="17">
         <v>25312</v>
@@ -9556,13 +9558,13 @@
         <v>9950</v>
       </c>
       <c r="D228" s="16">
-        <v>8075</v>
+        <v>5426</v>
       </c>
       <c r="E228" s="16">
-        <v>6314</v>
+        <v>3757</v>
       </c>
       <c r="F228" s="16">
-        <v>1761</v>
+        <v>1669</v>
       </c>
       <c r="G228" s="17">
         <v>93428</v>
@@ -9591,13 +9593,13 @@
         <v>109650</v>
       </c>
       <c r="D229" s="16">
-        <v>57116</v>
+        <v>50825</v>
       </c>
       <c r="E229" s="16">
-        <v>49072</v>
+        <v>43014</v>
       </c>
       <c r="F229" s="16">
-        <v>8044</v>
+        <v>7811</v>
       </c>
       <c r="G229" s="17">
         <v>1016090</v>
@@ -9626,10 +9628,10 @@
         <v>800</v>
       </c>
       <c r="D230" s="16">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E230" s="16">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F230" s="16">
         <v>2</v>
@@ -9661,10 +9663,10 @@
         <v>1200</v>
       </c>
       <c r="D231" s="16">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E231" s="16">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="F231" s="16">
         <v>2</v>
@@ -9696,13 +9698,13 @@
         <v>400</v>
       </c>
       <c r="D232" s="16">
-        <v>1044</v>
+        <v>1008</v>
       </c>
       <c r="E232" s="16">
-        <v>870</v>
+        <v>841</v>
       </c>
       <c r="F232" s="16">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G232" s="17">
         <v>33211</v>
@@ -9731,13 +9733,13 @@
         <v>200</v>
       </c>
       <c r="D233" s="16">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E233" s="16">
         <v>153</v>
       </c>
       <c r="F233" s="16">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G233" s="17">
         <v>2790</v>
@@ -9766,10 +9768,10 @@
         <v>1600</v>
       </c>
       <c r="D234" s="16">
-        <v>1014</v>
+        <v>983</v>
       </c>
       <c r="E234" s="16">
-        <v>1000</v>
+        <v>969</v>
       </c>
       <c r="F234" s="16">
         <v>14</v>
@@ -9801,10 +9803,10 @@
         <v>2100</v>
       </c>
       <c r="D235" s="16">
-        <v>1246</v>
+        <v>1233</v>
       </c>
       <c r="E235" s="16">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="F235" s="16">
         <v>12</v>
@@ -9836,13 +9838,13 @@
         <v>2000</v>
       </c>
       <c r="D236" s="16">
-        <v>1640</v>
+        <v>1530</v>
       </c>
       <c r="E236" s="16">
-        <v>1496</v>
+        <v>1395</v>
       </c>
       <c r="F236" s="16">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G236" s="17">
         <v>45144</v>
@@ -9871,10 +9873,10 @@
         <v>6550</v>
       </c>
       <c r="D237" s="16">
-        <v>4450</v>
+        <v>4412</v>
       </c>
       <c r="E237" s="16">
-        <v>3684</v>
+        <v>3646</v>
       </c>
       <c r="F237" s="16">
         <v>766</v>
@@ -9906,13 +9908,13 @@
         <v>3000</v>
       </c>
       <c r="D238" s="16">
-        <v>1584</v>
+        <v>1521</v>
       </c>
       <c r="E238" s="16">
-        <v>1553</v>
+        <v>1491</v>
       </c>
       <c r="F238" s="16">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G238" s="17">
         <v>64302</v>
@@ -9941,13 +9943,13 @@
         <v>1600</v>
       </c>
       <c r="D239" s="16">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="E239" s="16">
-        <v>773</v>
+        <v>736</v>
       </c>
       <c r="F239" s="16">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G239" s="17">
         <v>44163</v>
@@ -9976,13 +9978,13 @@
         <v>400</v>
       </c>
       <c r="D240" s="16">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E240" s="16">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F240" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G240" s="17">
         <v>8544</v>
@@ -10011,13 +10013,13 @@
         <v>1900</v>
       </c>
       <c r="D241" s="16">
-        <v>1153</v>
+        <v>1094</v>
       </c>
       <c r="E241" s="16">
-        <v>1097</v>
+        <v>1045</v>
       </c>
       <c r="F241" s="16">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G241" s="17">
         <v>28737</v>
@@ -10046,10 +10048,10 @@
         <v>26800</v>
       </c>
       <c r="D242" s="16">
-        <v>10124</v>
+        <v>9923</v>
       </c>
       <c r="E242" s="16">
-        <v>9639</v>
+        <v>9438</v>
       </c>
       <c r="F242" s="16">
         <v>485</v>
@@ -10081,13 +10083,13 @@
         <v>1300</v>
       </c>
       <c r="D243" s="16">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="E243" s="16">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="F243" s="16">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G243" s="17">
         <v>31964</v>
@@ -10116,10 +10118,10 @@
         <v>400</v>
       </c>
       <c r="D244" s="16">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="E244" s="16">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="F244" s="16">
         <v>0</v>
@@ -10151,13 +10153,13 @@
         <v>14950</v>
       </c>
       <c r="D245" s="16">
-        <v>8669</v>
+        <v>7616</v>
       </c>
       <c r="E245" s="16">
-        <v>7285</v>
+        <v>6253</v>
       </c>
       <c r="F245" s="16">
-        <v>1384</v>
+        <v>1363</v>
       </c>
       <c r="G245" s="17">
         <v>106550</v>
@@ -10186,10 +10188,10 @@
         <v>2800</v>
       </c>
       <c r="D246" s="16">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="E246" s="16">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="F246" s="16">
         <v>54</v>
@@ -10221,13 +10223,13 @@
         <v>100</v>
       </c>
       <c r="D247" s="16">
-        <v>627</v>
+        <v>544</v>
       </c>
       <c r="E247" s="16">
-        <v>569</v>
+        <v>487</v>
       </c>
       <c r="F247" s="16">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G247" s="17">
         <v>16823</v>
@@ -10256,13 +10258,13 @@
         <v>27575</v>
       </c>
       <c r="D248" s="16">
-        <v>22402</v>
+        <v>20269</v>
       </c>
       <c r="E248" s="16">
-        <v>19802</v>
+        <v>17775</v>
       </c>
       <c r="F248" s="16">
-        <v>2600</v>
+        <v>2494</v>
       </c>
       <c r="G248" s="17">
         <v>457170</v>
@@ -10291,13 +10293,13 @@
         <v>2700</v>
       </c>
       <c r="D249" s="16">
-        <v>2281</v>
+        <v>2246</v>
       </c>
       <c r="E249" s="16">
-        <v>2136</v>
+        <v>2102</v>
       </c>
       <c r="F249" s="16">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G249" s="17">
         <v>42030</v>
@@ -10326,10 +10328,10 @@
         <v>200</v>
       </c>
       <c r="D250" s="16">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E250" s="16">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F250" s="16">
         <v>2</v>
@@ -10361,13 +10363,13 @@
         <v>4350</v>
       </c>
       <c r="D251" s="16">
-        <v>3978</v>
+        <v>3933</v>
       </c>
       <c r="E251" s="16">
-        <v>3180</v>
+        <v>3141</v>
       </c>
       <c r="F251" s="16">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="G251" s="17">
         <v>55570</v>
@@ -10396,13 +10398,13 @@
         <v>1500</v>
       </c>
       <c r="D252" s="16">
-        <v>1545</v>
+        <v>1458</v>
       </c>
       <c r="E252" s="16">
-        <v>1453</v>
+        <v>1374</v>
       </c>
       <c r="F252" s="16">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G252" s="17">
         <v>37205</v>
@@ -10431,10 +10433,10 @@
         <v>300</v>
       </c>
       <c r="D253" s="16">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E253" s="16">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F253" s="16">
         <v>7</v>
@@ -10466,10 +10468,10 @@
         <v>1700</v>
       </c>
       <c r="D254" s="16">
-        <v>655</v>
+        <v>593</v>
       </c>
       <c r="E254" s="16">
-        <v>650</v>
+        <v>588</v>
       </c>
       <c r="F254" s="16">
         <v>5</v>
@@ -10501,10 +10503,10 @@
         <v>200</v>
       </c>
       <c r="D255" s="16">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E255" s="16">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F255" s="16">
         <v>3</v>
@@ -10536,10 +10538,10 @@
         <v>100</v>
       </c>
       <c r="D256" s="16">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E256" s="16">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F256" s="16">
         <v>1</v>
@@ -10571,19 +10573,32 @@
         <v>0</v>
       </c>
       <c r="D257" s="16">
-        <v>126245</v>
+        <v>114849</v>
       </c>
       <c r="E257" s="16">
-        <v>110846</v>
+        <v>99784</v>
       </c>
       <c r="F257" s="16">
-        <v>15399</v>
+        <v>15065</v>
       </c>
       <c r="G257" s="17"/>
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
       <c r="J257" s="17"/>
       <c r="K257" s="17"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" s="19"/>
+      <c r="B258" s="20"/>
+      <c r="C258" s="16"/>
+      <c r="D258" s="16"/>
+      <c r="E258" s="16"/>
+      <c r="F258" s="16"/>
+      <c r="G258" s="17"/>
+      <c r="H258" s="17"/>
+      <c r="I258" s="17"/>
+      <c r="J258" s="17"/>
+      <c r="K258" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10595,13 +10610,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" customWidth="1"/>
     <col min="3" max="3" width="18" style="13" customWidth="1"/>
-    <col min="4" max="4" width="37.73046875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="13" customWidth="1"/>
     <col min="5" max="5" width="22.19921875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10630,13 +10647,13 @@
         <v>286</v>
       </c>
       <c r="C2" s="16">
-        <v>371613</v>
+        <v>356320</v>
       </c>
       <c r="D2" s="16">
-        <v>299640</v>
+        <v>286500</v>
       </c>
       <c r="E2" s="16">
-        <v>71973</v>
+        <v>69820</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -10645,13 +10662,13 @@
         <v>287</v>
       </c>
       <c r="C3" s="16">
-        <v>192732</v>
+        <v>182615</v>
       </c>
       <c r="D3" s="16">
-        <v>163757</v>
+        <v>154581</v>
       </c>
       <c r="E3" s="16">
-        <v>28975</v>
+        <v>28034</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -10660,13 +10677,13 @@
         <v>288</v>
       </c>
       <c r="C4" s="16">
-        <v>152388</v>
+        <v>139270</v>
       </c>
       <c r="D4" s="16">
-        <v>147301</v>
+        <v>134438</v>
       </c>
       <c r="E4" s="16">
-        <v>5087</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -10675,13 +10692,13 @@
         <v>289</v>
       </c>
       <c r="C5" s="16">
-        <v>59091</v>
+        <v>50379</v>
       </c>
       <c r="D5" s="16">
-        <v>58833</v>
+        <v>50178</v>
       </c>
       <c r="E5" s="16">
-        <v>258</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -10690,10 +10707,10 @@
         <v>290</v>
       </c>
       <c r="C6" s="16">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="D6" s="16">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="E6" s="16">
         <v>26</v>
@@ -10705,13 +10722,13 @@
         <v>291</v>
       </c>
       <c r="C7" s="16">
-        <v>776493</v>
+        <v>729238</v>
       </c>
       <c r="D7" s="16">
-        <v>670174</v>
+        <v>626325</v>
       </c>
       <c r="E7" s="16">
-        <v>106319</v>
+        <v>102913</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -10722,13 +10739,13 @@
         <v>286</v>
       </c>
       <c r="C8" s="16">
-        <v>200219</v>
+        <v>192713</v>
       </c>
       <c r="D8" s="16">
-        <v>162128</v>
+        <v>155590</v>
       </c>
       <c r="E8" s="16">
-        <v>38091</v>
+        <v>37123</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -10737,13 +10754,13 @@
         <v>287</v>
       </c>
       <c r="C9" s="16">
-        <v>118897</v>
+        <v>112522</v>
       </c>
       <c r="D9" s="16">
-        <v>101935</v>
+        <v>96031</v>
       </c>
       <c r="E9" s="16">
-        <v>16962</v>
+        <v>16491</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -10752,13 +10769,13 @@
         <v>288</v>
       </c>
       <c r="C10" s="16">
-        <v>127317</v>
+        <v>117013</v>
       </c>
       <c r="D10" s="16">
-        <v>122402</v>
+        <v>112285</v>
       </c>
       <c r="E10" s="16">
-        <v>4915</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -10767,13 +10784,13 @@
         <v>289</v>
       </c>
       <c r="C11" s="16">
-        <v>39035</v>
+        <v>34587</v>
       </c>
       <c r="D11" s="16">
-        <v>38719</v>
+        <v>34299</v>
       </c>
       <c r="E11" s="16">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -10782,13 +10799,13 @@
         <v>290</v>
       </c>
       <c r="C12" s="16">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D12" s="16">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="E12" s="16">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -10797,13 +10814,13 @@
         <v>291</v>
       </c>
       <c r="C13" s="16">
-        <v>485908</v>
+        <v>457264</v>
       </c>
       <c r="D13" s="16">
-        <v>425612</v>
+        <v>398623</v>
       </c>
       <c r="E13" s="16">
-        <v>60296</v>
+        <v>58641</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -10814,13 +10831,13 @@
         <v>286</v>
       </c>
       <c r="C14" s="16">
-        <v>3836</v>
+        <v>3775</v>
       </c>
       <c r="D14" s="16">
-        <v>3636</v>
+        <v>3580</v>
       </c>
       <c r="E14" s="16">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -10829,13 +10846,13 @@
         <v>287</v>
       </c>
       <c r="C15" s="16">
-        <v>2179</v>
+        <v>2151</v>
       </c>
       <c r="D15" s="16">
-        <v>2082</v>
+        <v>2056</v>
       </c>
       <c r="E15" s="16">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -10844,13 +10861,13 @@
         <v>288</v>
       </c>
       <c r="C16" s="16">
-        <v>7148</v>
+        <v>7087</v>
       </c>
       <c r="D16" s="16">
-        <v>7126</v>
+        <v>7066</v>
       </c>
       <c r="E16" s="16">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -10859,10 +10876,10 @@
         <v>289</v>
       </c>
       <c r="C17" s="16">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="D17" s="16">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="E17" s="16">
         <v>0</v>
@@ -10889,13 +10906,13 @@
         <v>291</v>
       </c>
       <c r="C19" s="16">
-        <v>14407</v>
+        <v>14253</v>
       </c>
       <c r="D19" s="16">
-        <v>14088</v>
+        <v>13942</v>
       </c>
       <c r="E19" s="16">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -10904,13 +10921,13 @@
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="16">
-        <v>1276808</v>
+        <v>1200755</v>
       </c>
       <c r="D20" s="16">
-        <v>1109874</v>
+        <v>1038890</v>
       </c>
       <c r="E20" s="16">
-        <v>166934</v>
+        <v>161865</v>
       </c>
     </row>
   </sheetData>
